--- a/Spotify_data (1).xlsx
+++ b/Spotify_data (1).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68C3787-B23B-4CF1-914A-ADFBCE93CB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B66B517-6386-4E59-813A-B360B065BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C02C7CA9-98BC-4463-80C7-53762558B11B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$521</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -936,7 +939,7 @@
   <dimension ref="A1:U521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D526" sqref="D526"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,6 +963,7 @@
     <col min="19" max="19" width="19.5546875" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" customWidth="1"/>
     <col min="21" max="21" width="17.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -35347,6 +35351,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U521" xr:uid="{631348B3-AD0C-4320-A243-D3FCC32A56AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Spotify_data (1).xlsx
+++ b/Spotify_data (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Venus-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B66B517-6386-4E59-813A-B360B065BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5E885E-235C-43AA-891A-7DC1A5CA06BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C02C7CA9-98BC-4463-80C7-53762558B11B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C02C7CA9-98BC-4463-80C7-53762558B11B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,35 +938,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631348B3-AD0C-4320-A243-D3FCC32A56AB}">
   <dimension ref="A1:U521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P498" sqref="P498"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="51.21875" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="24.5546875" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
     <col min="12" max="12" width="53" customWidth="1"/>
-    <col min="13" max="13" width="28.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" customWidth="1"/>
-    <col min="17" max="17" width="22.77734375" customWidth="1"/>
-    <col min="18" max="18" width="24.21875" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="17.88671875" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -1228,7 +1228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1294,7 +1294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1360,7 +1360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1426,7 +1426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1558,7 +1558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1624,7 +1624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1690,7 +1690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1756,7 +1756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1822,7 +1822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1888,7 +1888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1954,7 +1954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2020,7 +2020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2086,7 +2086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2152,7 +2152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2218,7 +2218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2284,7 +2284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2350,7 +2350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2416,7 +2416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2482,7 +2482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2548,7 +2548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2614,7 +2614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2680,7 +2680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2746,7 +2746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2812,7 +2812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2878,7 +2878,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2944,7 +2944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3010,7 +3010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3076,7 +3076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3142,7 +3142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3208,7 +3208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3274,7 +3274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3340,7 +3340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3406,7 +3406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3472,7 +3472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3538,7 +3538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3604,7 +3604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3670,7 +3670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3736,7 +3736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3802,7 +3802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3868,7 +3868,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3934,7 +3934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4000,7 +4000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4066,7 +4066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4132,7 +4132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4198,7 +4198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4264,7 +4264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4330,7 +4330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4396,7 +4396,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4462,7 +4462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4528,7 +4528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4594,7 +4594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4660,7 +4660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4726,7 +4726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4792,7 +4792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4858,7 +4858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4924,7 +4924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4990,7 +4990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5056,7 +5056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5122,7 +5122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5188,7 +5188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5254,7 +5254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5320,7 +5320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5386,7 +5386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -5452,7 +5452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -5518,7 +5518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -5584,7 +5584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -5650,7 +5650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5716,7 +5716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5782,7 +5782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -5848,7 +5848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -5914,7 +5914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -5980,7 +5980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6046,7 +6046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6112,7 +6112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6178,7 +6178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6244,7 +6244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6310,7 +6310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6376,7 +6376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6442,7 +6442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6508,7 +6508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6574,7 +6574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6640,7 +6640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6706,7 +6706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6772,7 +6772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6838,7 +6838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6904,7 +6904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6970,7 +6970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -7036,7 +7036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -7102,7 +7102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -7168,7 +7168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -7234,7 +7234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -7300,7 +7300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -7366,7 +7366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -7432,7 +7432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -7498,7 +7498,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -7564,7 +7564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -7630,7 +7630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -7696,7 +7696,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -7762,7 +7762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -7828,7 +7828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -7894,7 +7894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -7960,7 +7960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -8026,7 +8026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -8092,7 +8092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -8158,7 +8158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -8224,7 +8224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -8290,7 +8290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -8356,7 +8356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -8422,7 +8422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -8488,7 +8488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -8554,7 +8554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -8620,7 +8620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -8686,7 +8686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -8752,7 +8752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -8818,7 +8818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -8884,7 +8884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -8950,7 +8950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -9016,7 +9016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -9082,7 +9082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -9148,7 +9148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -9214,7 +9214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -9280,7 +9280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -9346,7 +9346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -9412,7 +9412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -9478,7 +9478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -9544,7 +9544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -9610,7 +9610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -9676,7 +9676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -9742,7 +9742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -9808,7 +9808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -9874,7 +9874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -9940,7 +9940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -10006,7 +10006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -10072,7 +10072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -10138,7 +10138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -10204,7 +10204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -10270,7 +10270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -10336,7 +10336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -10402,7 +10402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -10468,7 +10468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -10534,7 +10534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -10600,7 +10600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -10666,7 +10666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -10732,7 +10732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -10798,7 +10798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -10864,7 +10864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -10930,7 +10930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -10996,7 +10996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -11062,7 +11062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -11128,7 +11128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -11194,7 +11194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -11260,7 +11260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -11326,7 +11326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -11392,7 +11392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -11458,7 +11458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -11524,7 +11524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -11590,7 +11590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -11656,7 +11656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -11722,7 +11722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -11788,7 +11788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -11854,7 +11854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -11920,7 +11920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -11986,7 +11986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -12052,7 +12052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -12118,7 +12118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -12184,7 +12184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -12250,7 +12250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -12316,7 +12316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -12382,7 +12382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -12448,7 +12448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -12514,7 +12514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -12580,7 +12580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -12646,7 +12646,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -12712,7 +12712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -12778,7 +12778,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -12844,7 +12844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -12910,7 +12910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -12976,7 +12976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -13042,7 +13042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -13108,7 +13108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -13174,7 +13174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -13240,7 +13240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -13306,7 +13306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -13372,7 +13372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -13438,7 +13438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -13504,7 +13504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -13570,7 +13570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -13636,7 +13636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -13702,7 +13702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -13768,7 +13768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -13834,7 +13834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -13900,7 +13900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -13966,7 +13966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -14032,7 +14032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -14098,7 +14098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -14164,7 +14164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -14230,7 +14230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -14296,7 +14296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -14362,7 +14362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -14428,7 +14428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -14494,7 +14494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -14560,7 +14560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -14626,7 +14626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -14692,7 +14692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -14758,7 +14758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -14824,7 +14824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -14890,7 +14890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -14956,7 +14956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -15022,7 +15022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -15088,7 +15088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -15154,7 +15154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -15220,7 +15220,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -15286,7 +15286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -15352,7 +15352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -15418,7 +15418,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -15484,7 +15484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -15550,7 +15550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -15616,7 +15616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -15682,7 +15682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -15748,7 +15748,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -15814,7 +15814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -15880,7 +15880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -15946,7 +15946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -16012,7 +16012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -16078,7 +16078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -16144,7 +16144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -16210,7 +16210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -16276,7 +16276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -16342,7 +16342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -16408,7 +16408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -16474,7 +16474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -16540,7 +16540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -16606,7 +16606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -16672,7 +16672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -16738,7 +16738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -16804,7 +16804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -16870,7 +16870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -16936,7 +16936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -17002,7 +17002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -17068,7 +17068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -17134,7 +17134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -17200,7 +17200,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -17266,7 +17266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -17332,7 +17332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -17398,7 +17398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -17464,7 +17464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -17530,7 +17530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -17596,7 +17596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -17662,7 +17662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -17728,7 +17728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -17794,7 +17794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -17860,7 +17860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -17926,7 +17926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -17992,7 +17992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -18058,7 +18058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -18124,7 +18124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -18190,7 +18190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -18256,7 +18256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -18322,7 +18322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -18388,7 +18388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -18454,7 +18454,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -18520,7 +18520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -18586,7 +18586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -18652,7 +18652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -18718,7 +18718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -18784,7 +18784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -18850,7 +18850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -18916,7 +18916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -18982,7 +18982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -19048,7 +19048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -19114,7 +19114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -19180,7 +19180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -19246,7 +19246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -19312,7 +19312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -19378,7 +19378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -19444,7 +19444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -19510,7 +19510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -19576,7 +19576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -19642,7 +19642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -19708,7 +19708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -19774,7 +19774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -19840,7 +19840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -19906,7 +19906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -19972,7 +19972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -20038,7 +20038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -20104,7 +20104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -20170,7 +20170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -20236,7 +20236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -20302,7 +20302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -20368,7 +20368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -20434,7 +20434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -20500,7 +20500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -20566,7 +20566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -20632,7 +20632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -20698,7 +20698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -20764,7 +20764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -20830,7 +20830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -20896,7 +20896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -20962,7 +20962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -21028,7 +21028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -21094,7 +21094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -21160,7 +21160,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -21226,7 +21226,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -21292,7 +21292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -21358,7 +21358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -21424,7 +21424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -21490,7 +21490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -21556,7 +21556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -21622,7 +21622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -21688,7 +21688,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -21754,7 +21754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -21820,7 +21820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -21886,7 +21886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -21952,7 +21952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -22018,7 +22018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -22084,7 +22084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -22150,7 +22150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -22216,7 +22216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -22282,7 +22282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
@@ -22348,7 +22348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -22414,7 +22414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -22480,7 +22480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -22546,7 +22546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -22612,7 +22612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -22678,7 +22678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -22744,7 +22744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -22810,7 +22810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -22876,7 +22876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -22942,7 +22942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -23008,7 +23008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -23074,7 +23074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -23140,7 +23140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -23206,7 +23206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -23272,7 +23272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -23338,7 +23338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -23404,7 +23404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -23470,7 +23470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -23536,7 +23536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -23602,7 +23602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -23668,7 +23668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -23734,7 +23734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -23800,7 +23800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -23866,7 +23866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -23932,7 +23932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -23998,7 +23998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -24064,7 +24064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -24130,7 +24130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -24196,7 +24196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -24262,7 +24262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -24328,7 +24328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -24394,7 +24394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -24460,7 +24460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -24526,7 +24526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -24592,7 +24592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -24658,7 +24658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -24724,7 +24724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -24790,7 +24790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -24856,7 +24856,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -24922,7 +24922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -24988,7 +24988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -25054,7 +25054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -25120,7 +25120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -25186,7 +25186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -25252,7 +25252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -25318,7 +25318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -25384,7 +25384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -25450,7 +25450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -25516,7 +25516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -25582,7 +25582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -25648,7 +25648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -25714,7 +25714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -25780,7 +25780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -25846,7 +25846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -25912,7 +25912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -25978,7 +25978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -26044,7 +26044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -26110,7 +26110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -26176,7 +26176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -26242,7 +26242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -26308,7 +26308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -26374,7 +26374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -26440,7 +26440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -26506,7 +26506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>387</v>
@@ -26572,7 +26572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -26638,7 +26638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -26704,7 +26704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -26770,7 +26770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -26836,7 +26836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -26902,7 +26902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -26968,7 +26968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -27034,7 +27034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -27100,7 +27100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -27166,7 +27166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -27232,7 +27232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -27298,7 +27298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -27364,7 +27364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -27430,7 +27430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -27496,7 +27496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -27562,7 +27562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -27628,7 +27628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -27694,7 +27694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -27760,7 +27760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -27826,7 +27826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -27892,7 +27892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -27958,7 +27958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -28024,7 +28024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -28090,7 +28090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -28156,7 +28156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -28222,7 +28222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -28288,7 +28288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -28354,7 +28354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -28420,7 +28420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -28486,7 +28486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -28552,7 +28552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -28618,7 +28618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -28684,7 +28684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -28750,7 +28750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -28816,7 +28816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -28882,7 +28882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -28948,7 +28948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -29014,7 +29014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -29080,7 +29080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -29146,7 +29146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -29212,7 +29212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -29278,7 +29278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -29344,7 +29344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -29410,7 +29410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -29476,7 +29476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -29542,7 +29542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -29608,7 +29608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -29674,7 +29674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -29740,7 +29740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -29806,7 +29806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -29872,7 +29872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -29938,7 +29938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -30004,7 +30004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -30070,7 +30070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -30136,7 +30136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -30202,7 +30202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -30268,7 +30268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -30334,7 +30334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -30400,7 +30400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -30466,7 +30466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -30532,7 +30532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -30598,7 +30598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -30664,7 +30664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -30730,7 +30730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>451</v>
@@ -30796,7 +30796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -30862,7 +30862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -30928,7 +30928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -30994,7 +30994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -31060,7 +31060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -31126,7 +31126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -31192,7 +31192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -31258,7 +31258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -31324,7 +31324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -31390,7 +31390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -31456,7 +31456,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -31522,7 +31522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -31588,7 +31588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -31654,7 +31654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -31720,7 +31720,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -31786,7 +31786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -31852,7 +31852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -31918,7 +31918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -31984,7 +31984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -32050,7 +32050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -32116,7 +32116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -32182,7 +32182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -32248,7 +32248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -32314,7 +32314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -32380,7 +32380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -32446,7 +32446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -32512,7 +32512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -32578,7 +32578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -32644,7 +32644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -32710,7 +32710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -32776,7 +32776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -32842,7 +32842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -32908,7 +32908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -32974,7 +32974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -33040,7 +33040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -33106,7 +33106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -33172,7 +33172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -33238,7 +33238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -33304,7 +33304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -33370,7 +33370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -33436,7 +33436,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -33502,7 +33502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -33568,7 +33568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -33634,7 +33634,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -33700,7 +33700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -33766,7 +33766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -33832,7 +33832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -33898,7 +33898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -33964,7 +33964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -34030,7 +34030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -34096,7 +34096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -34162,7 +34162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -34228,7 +34228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -34294,7 +34294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -34360,7 +34360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -34426,7 +34426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -34492,7 +34492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -34558,7 +34558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -34624,7 +34624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -34690,7 +34690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -34756,7 +34756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -34822,7 +34822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -34888,7 +34888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515">
         <f t="shared" si="7"/>
         <v>514</v>
@@ -34954,7 +34954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516">
         <f t="shared" ref="A516:A521" si="8">A515+1</f>
         <v>515</v>
@@ -35020,7 +35020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -35086,7 +35086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -35152,7 +35152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -35218,7 +35218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -35284,7 +35284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521">
         <f t="shared" si="8"/>
         <v>520</v>
